--- a/allFeedbacks.xlsx
+++ b/allFeedbacks.xlsx
@@ -397,13 +397,938 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Date And Time</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Station</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Mobile</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Employement Status</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Age</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Duration</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Distance</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Commute</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Cleanliness</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Support</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Safety</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Other Suggestions</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>18:57:59 - 3/9/2022</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Egmore Metro</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Aryan</v>
+      </c>
+      <c r="D2" t="str">
+        <v>male</v>
+      </c>
+      <c r="E2" t="str">
+        <v>9087685678</v>
+      </c>
+      <c r="F2" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G2" t="str">
+        <v>40 to 50</v>
+      </c>
+      <c r="H2" t="str">
+        <v>6 months</v>
+      </c>
+      <c r="I2" t="str">
+        <v>8 to 12 kms</v>
+      </c>
+      <c r="J2" t="str">
+        <v>By Walk</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Agree</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Facilities</v>
+      </c>
+      <c r="M2" t="str">
+        <v>No</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Lorem Ipsum</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>11:07:08 - 6/9/2022</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Arumbakkam</v>
+      </c>
+      <c r="C3" t="str">
+        <v>sowmiya</v>
+      </c>
+      <c r="D3" t="str">
+        <v>female</v>
+      </c>
+      <c r="E3" t="str">
+        <v>9003322060</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Private</v>
+      </c>
+      <c r="G3" t="str">
+        <v>30 to 40</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Occasional</v>
+      </c>
+      <c r="I3" t="str">
+        <v>4 to 8 kms</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Car</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Agree</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Connectivity to stations</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N3" t="str">
+        <v>testing</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>11:07:31 - 6/9/2022</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Arignar Anna Alandur</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ida</v>
+      </c>
+      <c r="D4" t="str">
+        <v>female</v>
+      </c>
+      <c r="E4" t="str">
+        <v>9894190197</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Private</v>
+      </c>
+      <c r="G4" t="str">
+        <v>30 to 40</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Occasional</v>
+      </c>
+      <c r="I4" t="str">
+        <v>12 to 15 kms</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Bus</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Agree</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Parking</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>23:14:10 - 13/12/2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Guindy</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Harsh</v>
+      </c>
+      <c r="D5" t="str">
+        <v>male</v>
+      </c>
+      <c r="E5" t="str">
+        <v>62733517342915300</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Government</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Less than 20</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Occasional</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Less than 1 km</v>
+      </c>
+      <c r="J5" t="str">
+        <v>CMRL Feeder Services</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Strongly Agree</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Connectivity to stations</v>
+      </c>
+      <c r="M5" t="str">
+        <v>No</v>
+      </c>
+      <c r="N5" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>15:27:55 - 14/12/2022</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Airport</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Aryan</v>
+      </c>
+      <c r="D6" t="str">
+        <v>male</v>
+      </c>
+      <c r="E6" t="str">
+        <v>6287090676</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Private</v>
+      </c>
+      <c r="G6" t="str">
+        <v>20 to 30</v>
+      </c>
+      <c r="H6" t="str">
+        <v>6 months</v>
+      </c>
+      <c r="I6" t="str">
+        <v>1 to 4 kms</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Bus</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Agree</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Signages</v>
+      </c>
+      <c r="M6" t="str">
+        <v>No</v>
+      </c>
+      <c r="N6" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>15:27:55 - 14/12/2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Airport</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Aryan</v>
+      </c>
+      <c r="D7" t="str">
+        <v>male</v>
+      </c>
+      <c r="E7" t="str">
+        <v>6287090676</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Private</v>
+      </c>
+      <c r="G7" t="str">
+        <v>20 to 30</v>
+      </c>
+      <c r="H7" t="str">
+        <v>6 months</v>
+      </c>
+      <c r="I7" t="str">
+        <v>1 to 4 kms</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Bus</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Agree</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Signages</v>
+      </c>
+      <c r="M7" t="str">
+        <v>No</v>
+      </c>
+      <c r="N7" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>15:57:20 - 14/12/2022</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Anna Nagar East</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Aryan</v>
+      </c>
+      <c r="D8" t="str">
+        <v>male</v>
+      </c>
+      <c r="E8" t="str">
+        <v>6287090676</v>
+      </c>
+      <c r="F8" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G8" t="str">
+        <v>20 to 30</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2 to 3 years</v>
+      </c>
+      <c r="I8" t="str">
+        <v>8 to 12 kms</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Cycle</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Strongly Disagree</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Facilities</v>
+      </c>
+      <c r="M8" t="str">
+        <v>No</v>
+      </c>
+      <c r="N8" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>15:57:20 - 14/12/2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Anna Nagar East</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Aryan</v>
+      </c>
+      <c r="D9" t="str">
+        <v>male</v>
+      </c>
+      <c r="E9" t="str">
+        <v>6287090676</v>
+      </c>
+      <c r="F9" t="str">
+        <v>IT</v>
+      </c>
+      <c r="G9" t="str">
+        <v>20 to 30</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2 to 3 years</v>
+      </c>
+      <c r="I9" t="str">
+        <v>8 to 12 kms</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Cycle</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Strongly Disagree</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Facilities</v>
+      </c>
+      <c r="M9" t="str">
+        <v>No</v>
+      </c>
+      <c r="N9" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>00:34:43 - 31/12/2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Anna Nagar Tower</v>
+      </c>
+      <c r="C10" t="str">
+        <v>harsh</v>
+      </c>
+      <c r="D10" t="str">
+        <v>male</v>
+      </c>
+      <c r="E10" t="str">
+        <v>234566</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Student</v>
+      </c>
+      <c r="G10" t="str">
+        <v>40 to 50</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Occasional</v>
+      </c>
+      <c r="I10" t="str">
+        <v>8 to 12 kms</v>
+      </c>
+      <c r="J10" t="str">
+        <v>CMRL Feeder Services</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Strongly Agree</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Connectivity to stations</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>00:34:43 - 31/12/2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Anna Nagar Tower</v>
+      </c>
+      <c r="C11" t="str">
+        <v>harsh</v>
+      </c>
+      <c r="D11" t="str">
+        <v>male</v>
+      </c>
+      <c r="E11" t="str">
+        <v>234566</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Student</v>
+      </c>
+      <c r="G11" t="str">
+        <v>40 to 50</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Occasional</v>
+      </c>
+      <c r="I11" t="str">
+        <v>8 to 12 kms</v>
+      </c>
+      <c r="J11" t="str">
+        <v>CMRL Feeder Services</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Strongly Agree</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Connectivity to stations</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>12:21:58 - 2/1/2023</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Anna Nagar East</v>
+      </c>
+      <c r="C12" t="str">
+        <v>harsh</v>
+      </c>
+      <c r="D12" t="str">
+        <v>male</v>
+      </c>
+      <c r="E12" t="str">
+        <v>34893520</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Private</v>
+      </c>
+      <c r="G12" t="str">
+        <v>20 to 30</v>
+      </c>
+      <c r="H12" t="str">
+        <v>1 to 2 years</v>
+      </c>
+      <c r="I12" t="str">
+        <v>4 to 8 kms</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Bus</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Somewhat Agree</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Parking</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12:21:58 - 2/1/2023</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Anna Nagar East</v>
+      </c>
+      <c r="C13" t="str">
+        <v>harsh</v>
+      </c>
+      <c r="D13" t="str">
+        <v>male</v>
+      </c>
+      <c r="E13" t="str">
+        <v>34893520</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Private</v>
+      </c>
+      <c r="G13" t="str">
+        <v>20 to 30</v>
+      </c>
+      <c r="H13" t="str">
+        <v>1 to 2 years</v>
+      </c>
+      <c r="I13" t="str">
+        <v>4 to 8 kms</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Bus</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Somewhat Agree</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Parking</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>14:13:09 - 2/1/2023</v>
+      </c>
+      <c r="B14" t="str">
+        <v>General</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Viji</v>
+      </c>
+      <c r="D14" t="str">
+        <v>other</v>
+      </c>
+      <c r="E14" t="str">
+        <v>8998900577</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Others</v>
+      </c>
+      <c r="G14" t="str">
+        <v>50 to 60</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2 to 3 years</v>
+      </c>
+      <c r="I14" t="str">
+        <v>12 to 15 kms</v>
+      </c>
+      <c r="J14" t="str">
+        <v>By Walk</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Agree</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Signages</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="N14" t="str">
+        <v>Ndjfj</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14:26:30 - 2/1/2023</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Anna Nagar Tower</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>14:26:30 - 2/1/2023</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Anna Nagar Tower</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>14:32:32 - 2/1/2023</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Ekkattuthangal</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>15:47:55 - 2/1/2023</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Airport</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>15:47:55 - 2/1/2023</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Airport</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>16:40:30 - 5/1/2023</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Arignar Anna Alandur</v>
+      </c>
+      <c r="C20" t="str">
+        <v>harsh</v>
+      </c>
+      <c r="D20" t="str">
+        <v>male</v>
+      </c>
+      <c r="E20" t="str">
+        <v>70109216</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>16:40:30 - 5/1/2023</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Arignar Anna Alandur</v>
+      </c>
+      <c r="C21" t="str">
+        <v>harsh</v>
+      </c>
+      <c r="D21" t="str">
+        <v>male</v>
+      </c>
+      <c r="E21" t="str">
+        <v>70109216</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N21"/>
   </ignoredErrors>
 </worksheet>
 </file>